--- a/machine_learning.xlsx
+++ b/machine_learning.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="machine_learning" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="135">
   <si>
     <t>Machine learning</t>
   </si>
@@ -2687,6 +2687,54 @@
         <scheme val="minor"/>
       </rPr>
       <t>]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CountVectorizer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> converts text into numeric feature vectors (here you use character n-grams)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>LogisticRegression</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> is a supervised classification model</t>
     </r>
   </si>
 </sst>
@@ -2694,12 +2742,20 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="13">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2898,27 +2954,28 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3225,8 +3282,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:J135"/>
   <sheetViews>
-    <sheetView topLeftCell="A115" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E129" sqref="E129"/>
+    <sheetView tabSelected="1" topLeftCell="A111" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="J116" sqref="J116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -4011,62 +4068,68 @@
     <row r="112" spans="1:9">
       <c r="A112" s="1"/>
     </row>
-    <row r="113" spans="2:2">
+    <row r="113" spans="2:9">
       <c r="B113" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="114" spans="2:2">
+      <c r="I113" s="20" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="114" spans="2:9">
       <c r="B114" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="116" spans="2:2">
+      <c r="I114" s="20" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="116" spans="2:9">
       <c r="B116" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="117" spans="2:2">
+    <row r="117" spans="2:9">
       <c r="B117" s="15" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="118" spans="2:2">
+    <row r="118" spans="2:9">
       <c r="B118" s="15" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="120" spans="2:2">
+    <row r="120" spans="2:9">
       <c r="B120" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="121" spans="2:2">
+    <row r="121" spans="2:9">
       <c r="B121" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="122" spans="2:2">
+    <row r="122" spans="2:9">
       <c r="B122" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="124" spans="2:2">
+    <row r="124" spans="2:9">
       <c r="B124" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="125" spans="2:2">
+    <row r="125" spans="2:9">
       <c r="B125" s="15" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="126" spans="2:2">
+    <row r="126" spans="2:9">
       <c r="B126" s="15" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="128" spans="2:2">
+    <row r="128" spans="2:9">
       <c r="B128" t="s">
         <v>101</v>
       </c>
@@ -4110,8 +4173,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:J62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C71" sqref="C71"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D64" sqref="D64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
